--- a/bot/data/files/to_send/all_olympiads.xlsx
+++ b/bot/data/files/to_send/all_olympiads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,1462 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ВСОШ по ОБЖ</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ОБЖ</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09.10.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11.10.22</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/bsvf/2021_2022</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ВСОШ по английскому языку</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Английский язык</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.09.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.09.22</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/engl/2021_2022</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ВСОШ по астрономии</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Астрономия</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.09.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.09.22</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/astr/2021_2022</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ВСОШ по биологии</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.09.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.09.22</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/biol/2021_2022</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ВСОШ по биологии</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.09.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.09.22</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/biol/2021_2022</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ВСОШ по географии</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.09.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.09.22</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/geog/2021_2022</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ВСОШ по информатике</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.09.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01.10.22</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.olympiads.ru/moscow/index.shtml</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ВСОШ по искусству</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Искусство МХК</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.09.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>02.10.22</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/amxk/2021_2022</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ВСОШ по испанскому языку</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Испанский язык</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>01.10.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03.10.22</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/span/2021_2022</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ВСОШ по истории</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>02.10.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>04.10.22</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/hist/2021_2022</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ВСОШ по итальянскому языку</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Итальянский язык</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>03.10.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>05.10.22</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/ital/2021_2022</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ВСОШ по китайскому языку</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Китайский язык</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>04.10.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>06.10.22</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/chin/2021_2022</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ВСОШ по литературе</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>05.10.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07.10.22</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/litr/2021_2022</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ВСОШ по математике</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Математика</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>06.10.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>08.10.22</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://olympiads.mccme.ru/vmo/</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ВСОШ по математике</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Математика</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>07.10.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09.10.22</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://olympiads.mccme.ru/vmo/</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ВСОШ по немецкому языку</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Немецкий язык</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>08.10.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10.10.22</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/germ/2021_2022</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ВСОШ по обществознанию</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Обществознание</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.10.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.10.22</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/soci/2021_2022</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ВСОШ по праву</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Право</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.10.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13.10.22</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/law/2021_2022</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ВСОШ по русскому языку</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Русский язык</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.10.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.10.22</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/russ/2021_2022</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ВСОШ по технологии (КД)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Технология КД</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.10.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15.10.22</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/tech/2021_2022</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ВСОШ по технологии (РТ)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Технология РТ</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.10.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>16.10.22</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/tech/2021_2022</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ВСОШ по технологии (ТТ)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Технология ТТ</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.10.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17.10.22</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/tech/2021_2022</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ВСОШ по физике</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.10.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>18.10.22</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/phys/2021_2022</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ВСОШ по физической культуре</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Физическая культура</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.10.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19.10.22</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/pcul/2021_2022</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ВСОШ по французскому языку</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Французский язык</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.10.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.10.22</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/fren/2021_2022</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ВСОШ по химии</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.10.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.10.22</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/chem/2021_2022</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ВСОШ по экологии</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Экология</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.10.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.10.22</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/ekol/2021_2022</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ВСОШ по экономике</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Экономика</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.10.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.10.22</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://vos.olimpiada.ru/ekol/2021_2022</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
